--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB516B57-2705-4655-A588-DF6319A4F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421D2514-6F30-41B6-A800-23AF13256842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421D2514-6F30-41B6-A800-23AF13256842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7466CA73-3D4D-485E-B815-E289582B1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2000,7 +2000,7 @@
   <dimension ref="B1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2298,7 +2298,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
@@ -2478,7 +2478,7 @@
         <v>34</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7466CA73-3D4D-485E-B815-E289582B1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9B233F-C288-4FC6-AD13-1680F0425055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2000,7 +2000,7 @@
   <dimension ref="B1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2313,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9B233F-C288-4FC6-AD13-1680F0425055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7ECA3-A54E-4E9A-B772-98DA8B0894D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2000,7 +2000,7 @@
   <dimension ref="B1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2208,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7ECA3-A54E-4E9A-B772-98DA8B0894D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA66604-DF7C-4EAE-98DB-D8FDDC9BAA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2268,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -2283,7 +2283,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
@@ -2343,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
@@ -2388,7 +2388,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
@@ -2448,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA66604-DF7C-4EAE-98DB-D8FDDC9BAA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455512B0-E2F4-4AFF-9F49-E8633203DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2358,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455512B0-E2F4-4AFF-9F49-E8633203DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE3BE6-39AF-433E-9DE5-87B8A5E9A0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2000,7 +2000,7 @@
   <dimension ref="B1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2328,7 +2328,7 @@
         <v>24</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE3BE6-39AF-433E-9DE5-87B8A5E9A0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86684D-832C-48EB-B401-D6245301BDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2373,7 +2373,7 @@
         <v>27</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
@@ -2403,7 +2403,7 @@
         <v>29</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86684D-832C-48EB-B401-D6245301BDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA42CAF-04E4-46E6-9BFD-467B524B235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA42CAF-04E4-46E6-9BFD-467B524B235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA871A-AF5D-4C8C-807C-6E4296E43D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2433,7 +2433,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
@@ -2463,7 +2463,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA871A-AF5D-4C8C-807C-6E4296E43D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1950CA2-9FD1-4596-B346-A5E7981B2ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2493,7 +2493,7 @@
         <v>35</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1950CA2-9FD1-4596-B346-A5E7981B2ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523140A3-83FF-4DE9-B98A-06A11C0E6E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="473">
   <si>
     <t>Topic:</t>
   </si>
@@ -1426,12 +1426,6 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/print-a-binary-tree-in-vertical-order/1   (Vertical Traversal of a Tree)</t>
-  </si>
-  <si>
-    <t>Done R</t>
-  </si>
-  <si>
-    <t>Done  R</t>
   </si>
   <si>
     <t>***</t>
@@ -1999,21 +1993,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="123" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2025,13 +2019,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="14"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="14">
         <f>IF(C3&lt;&gt;"", COUNTIF(C$3:C3, "&lt;&gt;"), "")</f>
         <v>1</v>
@@ -2043,10 +2037,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="14">
         <f>IF(C4&lt;&gt;"", COUNTIF(C$3:C4, "&lt;&gt;"), "")</f>
         <v>2</v>
@@ -2058,10 +2052,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="14">
         <f>IF(C5&lt;&gt;"", COUNTIF(C$3:C5, "&lt;&gt;"), "")</f>
         <v>3</v>
@@ -2073,10 +2067,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <f>IF(C6&lt;&gt;"", COUNTIF(C$3:C6, "&lt;&gt;"), "")</f>
         <v>4</v>
@@ -2088,10 +2082,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="14">
         <f>IF(C7&lt;&gt;"", COUNTIF(C$3:C7, "&lt;&gt;"), "")</f>
         <v>5</v>
@@ -2103,10 +2097,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="14">
         <f>IF(C8&lt;&gt;"", COUNTIF(C$3:C8, "&lt;&gt;"), "")</f>
         <v>6</v>
@@ -2118,10 +2112,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <f>IF(C9&lt;&gt;"", COUNTIF(C$3:C9, "&lt;&gt;"), "")</f>
         <v>7</v>
@@ -2133,10 +2127,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <f>IF(C10&lt;&gt;"", COUNTIF(C$3:C10, "&lt;&gt;"), "")</f>
         <v>8</v>
@@ -2148,10 +2142,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <f>IF(C11&lt;&gt;"", COUNTIF(C$3:C11, "&lt;&gt;"), "")</f>
         <v>9</v>
@@ -2163,10 +2157,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <f>IF(C12&lt;&gt;"", COUNTIF(C$3:C12, "&lt;&gt;"), "")</f>
         <v>10</v>
@@ -2178,10 +2172,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <f>IF(C13&lt;&gt;"", COUNTIF(C$3:C13, "&lt;&gt;"), "")</f>
         <v>11</v>
@@ -2193,10 +2187,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <f>IF(C14&lt;&gt;"", COUNTIF(C$3:C14, "&lt;&gt;"), "")</f>
         <v>12</v>
@@ -2211,7 +2205,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <f>IF(C15&lt;&gt;"", COUNTIF(C$3:C15, "&lt;&gt;"), "")</f>
         <v>13</v>
@@ -2223,10 +2217,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
         <f>IF(C16&lt;&gt;"", COUNTIF(C$3:C16, "&lt;&gt;"), "")</f>
         <v>14</v>
@@ -2241,7 +2235,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <f>IF(C17&lt;&gt;"", COUNTIF(C$3:C17, "&lt;&gt;"), "")</f>
         <v>15</v>
@@ -2256,7 +2250,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
         <f>IF(C18&lt;&gt;"", COUNTIF(C$3:C18, "&lt;&gt;"), "")</f>
         <v>16</v>
@@ -2271,7 +2265,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
         <f>IF(C19&lt;&gt;"", COUNTIF(C$3:C19, "&lt;&gt;"), "")</f>
         <v>17</v>
@@ -2286,7 +2280,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="14">
         <f>IF(C20&lt;&gt;"", COUNTIF(C$3:C20, "&lt;&gt;"), "")</f>
         <v>18</v>
@@ -2301,7 +2295,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="14">
         <f>IF(C21&lt;&gt;"", COUNTIF(C$3:C21, "&lt;&gt;"), "")</f>
         <v>19</v>
@@ -2316,7 +2310,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="14">
         <f>IF(C22&lt;&gt;"", COUNTIF(C$3:C22, "&lt;&gt;"), "")</f>
         <v>20</v>
@@ -2331,7 +2325,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <f>IF(C23&lt;&gt;"", COUNTIF(C$3:C23, "&lt;&gt;"), "")</f>
         <v>21</v>
@@ -2346,7 +2340,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="14">
         <f>IF(C24&lt;&gt;"", COUNTIF(C$3:C24, "&lt;&gt;"), "")</f>
         <v>22</v>
@@ -2361,7 +2355,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="14">
         <f>IF(C25&lt;&gt;"", COUNTIF(C$3:C25, "&lt;&gt;"), "")</f>
         <v>23</v>
@@ -2376,7 +2370,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="14">
         <f>IF(C26&lt;&gt;"", COUNTIF(C$3:C26, "&lt;&gt;"), "")</f>
         <v>24</v>
@@ -2391,7 +2385,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="14">
         <f>IF(C27&lt;&gt;"", COUNTIF(C$3:C27, "&lt;&gt;"), "")</f>
         <v>25</v>
@@ -2406,7 +2400,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="14">
         <f>IF(C28&lt;&gt;"", COUNTIF(C$3:C28, "&lt;&gt;"), "")</f>
         <v>26</v>
@@ -2421,7 +2415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="14">
         <f>IF(C29&lt;&gt;"", COUNTIF(C$3:C29, "&lt;&gt;"), "")</f>
         <v>27</v>
@@ -2436,7 +2430,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="14">
         <f>IF(C30&lt;&gt;"", COUNTIF(C$3:C30, "&lt;&gt;"), "")</f>
         <v>28</v>
@@ -2451,7 +2445,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="14">
         <f>IF(C31&lt;&gt;"", COUNTIF(C$3:C31, "&lt;&gt;"), "")</f>
         <v>29</v>
@@ -2466,7 +2460,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="14">
         <f>IF(C32&lt;&gt;"", COUNTIF(C$3:C32, "&lt;&gt;"), "")</f>
         <v>30</v>
@@ -2481,7 +2475,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <f>IF(C33&lt;&gt;"", COUNTIF(C$3:C33, "&lt;&gt;"), "")</f>
         <v>31</v>
@@ -2496,7 +2490,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="14">
         <f>IF(C34&lt;&gt;"", COUNTIF(C$3:C34, "&lt;&gt;"), "")</f>
         <v>32</v>
@@ -2511,7 +2505,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="14">
         <f>IF(C35&lt;&gt;"", COUNTIF(C$3:C35, "&lt;&gt;"), "")</f>
         <v>33</v>
@@ -2523,10 +2517,10 @@
         <v>37</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="14">
         <f>IF(C36&lt;&gt;"", COUNTIF(C$3:C36, "&lt;&gt;"), "")</f>
         <v>34</v>
@@ -2538,10 +2532,10 @@
         <v>38</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="14">
         <f>IF(C37&lt;&gt;"", COUNTIF(C$3:C37, "&lt;&gt;"), "")</f>
         <v>35</v>
@@ -2553,10 +2547,10 @@
         <v>39</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="14">
         <f>IF(C38&lt;&gt;"", COUNTIF(C$3:C38, "&lt;&gt;"), "")</f>
         <v>36</v>
@@ -2571,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="str">
         <f>IF(C39&lt;&gt;"", COUNTIF(C$3:C39, "&lt;&gt;"), "")</f>
         <v/>
@@ -2582,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="str">
         <f>IF(C40&lt;&gt;"", COUNTIF(C$3:C40, "&lt;&gt;"), "")</f>
         <v/>
@@ -2593,7 +2587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="14">
         <f>IF(C41&lt;&gt;"", COUNTIF(C$3:C41, "&lt;&gt;"), "")</f>
         <v>37</v>
@@ -2608,7 +2602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="14">
         <f>IF(C42&lt;&gt;"", COUNTIF(C$3:C42, "&lt;&gt;"), "")</f>
         <v>38</v>
@@ -2623,7 +2617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="14">
         <f>IF(C43&lt;&gt;"", COUNTIF(C$3:C43, "&lt;&gt;"), "")</f>
         <v>39</v>
@@ -2638,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="14">
         <f>IF(C44&lt;&gt;"", COUNTIF(C$3:C44, "&lt;&gt;"), "")</f>
         <v>40</v>
@@ -2653,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="14">
         <f>IF(C45&lt;&gt;"", COUNTIF(C$3:C45, "&lt;&gt;"), "")</f>
         <v>41</v>
@@ -2668,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="14">
         <f>IF(C46&lt;&gt;"", COUNTIF(C$3:C46, "&lt;&gt;"), "")</f>
         <v>42</v>
@@ -2683,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="14">
         <f>IF(C47&lt;&gt;"", COUNTIF(C$3:C47, "&lt;&gt;"), "")</f>
         <v>43</v>
@@ -2698,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="14">
         <f>IF(C48&lt;&gt;"", COUNTIF(C$3:C48, "&lt;&gt;"), "")</f>
         <v>44</v>
@@ -2713,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="14">
         <f>IF(C49&lt;&gt;"", COUNTIF(C$3:C49, "&lt;&gt;"), "")</f>
         <v>45</v>
@@ -2728,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="14">
         <f>IF(C50&lt;&gt;"", COUNTIF(C$3:C50, "&lt;&gt;"), "")</f>
         <v>46</v>
@@ -2743,7 +2737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="str">
         <f>IF(C51&lt;&gt;"", COUNTIF(C$3:C51, "&lt;&gt;"), "")</f>
         <v/>
@@ -2752,7 +2746,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="str">
         <f>IF(C52&lt;&gt;"", COUNTIF(C$3:C52, "&lt;&gt;"), "")</f>
         <v/>
@@ -2761,7 +2755,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="14">
         <f>IF(C53&lt;&gt;"", COUNTIF(C$3:C53, "&lt;&gt;"), "")</f>
         <v>47</v>
@@ -2776,7 +2770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="14">
         <f>IF(C54&lt;&gt;"", COUNTIF(C$3:C54, "&lt;&gt;"), "")</f>
         <v>48</v>
@@ -2791,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="14">
         <f>IF(C55&lt;&gt;"", COUNTIF(C$3:C55, "&lt;&gt;"), "")</f>
         <v>49</v>
@@ -2806,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="14">
         <f>IF(C56&lt;&gt;"", COUNTIF(C$3:C56, "&lt;&gt;"), "")</f>
         <v>50</v>
@@ -2821,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="14">
         <f>IF(C57&lt;&gt;"", COUNTIF(C$3:C57, "&lt;&gt;"), "")</f>
         <v>51</v>
@@ -2836,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="14">
         <f>IF(C58&lt;&gt;"", COUNTIF(C$3:C58, "&lt;&gt;"), "")</f>
         <v>52</v>
@@ -2851,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="14">
         <f>IF(C59&lt;&gt;"", COUNTIF(C$3:C59, "&lt;&gt;"), "")</f>
         <v>53</v>
@@ -2866,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="14">
         <f>IF(C60&lt;&gt;"", COUNTIF(C$3:C60, "&lt;&gt;"), "")</f>
         <v>54</v>
@@ -2881,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="14">
         <f>IF(C61&lt;&gt;"", COUNTIF(C$3:C61, "&lt;&gt;"), "")</f>
         <v>55</v>
@@ -2896,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="14">
         <f>IF(C62&lt;&gt;"", COUNTIF(C$3:C62, "&lt;&gt;"), "")</f>
         <v>56</v>
@@ -2911,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="14">
         <f>IF(C63&lt;&gt;"", COUNTIF(C$3:C63, "&lt;&gt;"), "")</f>
         <v>57</v>
@@ -2926,7 +2920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="14">
         <f>IF(C64&lt;&gt;"", COUNTIF(C$3:C64, "&lt;&gt;"), "")</f>
         <v>58</v>
@@ -2941,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="14">
         <f>IF(C65&lt;&gt;"", COUNTIF(C$3:C65, "&lt;&gt;"), "")</f>
         <v>59</v>
@@ -2956,7 +2950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="14">
         <f>IF(C66&lt;&gt;"", COUNTIF(C$3:C66, "&lt;&gt;"), "")</f>
         <v>60</v>
@@ -2971,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="14">
         <f>IF(C67&lt;&gt;"", COUNTIF(C$3:C67, "&lt;&gt;"), "")</f>
         <v>61</v>
@@ -2986,7 +2980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="14">
         <f>IF(C68&lt;&gt;"", COUNTIF(C$3:C68, "&lt;&gt;"), "")</f>
         <v>62</v>
@@ -3001,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="14">
         <f>IF(C69&lt;&gt;"", COUNTIF(C$3:C69, "&lt;&gt;"), "")</f>
         <v>63</v>
@@ -3016,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="14">
         <f>IF(C70&lt;&gt;"", COUNTIF(C$3:C70, "&lt;&gt;"), "")</f>
         <v>64</v>
@@ -3031,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="14">
         <f>IF(C71&lt;&gt;"", COUNTIF(C$3:C71, "&lt;&gt;"), "")</f>
         <v>65</v>
@@ -3046,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="14">
         <f>IF(C72&lt;&gt;"", COUNTIF(C$3:C72, "&lt;&gt;"), "")</f>
         <v>66</v>
@@ -3061,7 +3055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="14">
         <f>IF(C73&lt;&gt;"", COUNTIF(C$3:C73, "&lt;&gt;"), "")</f>
         <v>67</v>
@@ -3076,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="14">
         <f>IF(C74&lt;&gt;"", COUNTIF(C$3:C74, "&lt;&gt;"), "")</f>
         <v>68</v>
@@ -3091,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="14">
         <f>IF(C75&lt;&gt;"", COUNTIF(C$3:C75, "&lt;&gt;"), "")</f>
         <v>69</v>
@@ -3106,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="14">
         <f>IF(C76&lt;&gt;"", COUNTIF(C$3:C76, "&lt;&gt;"), "")</f>
         <v>70</v>
@@ -3121,7 +3115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="14">
         <f>IF(C77&lt;&gt;"", COUNTIF(C$3:C77, "&lt;&gt;"), "")</f>
         <v>71</v>
@@ -3136,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="14">
         <f>IF(C78&lt;&gt;"", COUNTIF(C$3:C78, "&lt;&gt;"), "")</f>
         <v>72</v>
@@ -3151,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="14">
         <f>IF(C79&lt;&gt;"", COUNTIF(C$3:C79, "&lt;&gt;"), "")</f>
         <v>73</v>
@@ -3166,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="14">
         <f>IF(C80&lt;&gt;"", COUNTIF(C$3:C80, "&lt;&gt;"), "")</f>
         <v>74</v>
@@ -3181,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="14">
         <f>IF(C81&lt;&gt;"", COUNTIF(C$3:C81, "&lt;&gt;"), "")</f>
         <v>75</v>
@@ -3196,7 +3190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="14">
         <f>IF(C82&lt;&gt;"", COUNTIF(C$3:C82, "&lt;&gt;"), "")</f>
         <v>76</v>
@@ -3211,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="14">
         <f>IF(C83&lt;&gt;"", COUNTIF(C$3:C83, "&lt;&gt;"), "")</f>
         <v>77</v>
@@ -3226,7 +3220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="14">
         <f>IF(C84&lt;&gt;"", COUNTIF(C$3:C84, "&lt;&gt;"), "")</f>
         <v>78</v>
@@ -3241,7 +3235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="14">
         <f>IF(C85&lt;&gt;"", COUNTIF(C$3:C85, "&lt;&gt;"), "")</f>
         <v>79</v>
@@ -3256,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="14">
         <f>IF(C86&lt;&gt;"", COUNTIF(C$3:C86, "&lt;&gt;"), "")</f>
         <v>80</v>
@@ -3271,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="14">
         <f>IF(C87&lt;&gt;"", COUNTIF(C$3:C87, "&lt;&gt;"), "")</f>
         <v>81</v>
@@ -3286,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="14">
         <f>IF(C88&lt;&gt;"", COUNTIF(C$3:C88, "&lt;&gt;"), "")</f>
         <v>82</v>
@@ -3301,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="14">
         <f>IF(C89&lt;&gt;"", COUNTIF(C$3:C89, "&lt;&gt;"), "")</f>
         <v>83</v>
@@ -3316,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="14">
         <f>IF(C90&lt;&gt;"", COUNTIF(C$3:C90, "&lt;&gt;"), "")</f>
         <v>84</v>
@@ -3331,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="14">
         <f>IF(C91&lt;&gt;"", COUNTIF(C$3:C91, "&lt;&gt;"), "")</f>
         <v>85</v>
@@ -3346,7 +3340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="14">
         <f>IF(C92&lt;&gt;"", COUNTIF(C$3:C92, "&lt;&gt;"), "")</f>
         <v>86</v>
@@ -3361,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="14">
         <f>IF(C93&lt;&gt;"", COUNTIF(C$3:C93, "&lt;&gt;"), "")</f>
         <v>87</v>
@@ -3376,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="14">
         <f>IF(C94&lt;&gt;"", COUNTIF(C$3:C94, "&lt;&gt;"), "")</f>
         <v>88</v>
@@ -3391,7 +3385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="14">
         <f>IF(C95&lt;&gt;"", COUNTIF(C$3:C95, "&lt;&gt;"), "")</f>
         <v>89</v>
@@ -3406,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="14" t="str">
         <f>IF(C96&lt;&gt;"", COUNTIF(C$3:C96, "&lt;&gt;"), "")</f>
         <v/>
@@ -3415,7 +3409,7 @@
       <c r="D96" s="4"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="14" t="str">
         <f>IF(C97&lt;&gt;"", COUNTIF(C$3:C97, "&lt;&gt;"), "")</f>
         <v/>
@@ -3424,7 +3418,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="14">
         <f>IF(C98&lt;&gt;"", COUNTIF(C$3:C98, "&lt;&gt;"), "")</f>
         <v>90</v>
@@ -3439,7 +3433,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="14">
         <f>IF(C99&lt;&gt;"", COUNTIF(C$3:C99, "&lt;&gt;"), "")</f>
         <v>91</v>
@@ -3454,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="14">
         <f>IF(C100&lt;&gt;"", COUNTIF(C$3:C100, "&lt;&gt;"), "")</f>
         <v>92</v>
@@ -3469,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="14">
         <f>IF(C101&lt;&gt;"", COUNTIF(C$3:C101, "&lt;&gt;"), "")</f>
         <v>93</v>
@@ -3484,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="14">
         <f>IF(C102&lt;&gt;"", COUNTIF(C$3:C102, "&lt;&gt;"), "")</f>
         <v>94</v>
@@ -3499,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="14">
         <f>IF(C103&lt;&gt;"", COUNTIF(C$3:C103, "&lt;&gt;"), "")</f>
         <v>95</v>
@@ -3514,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="14">
         <f>IF(C104&lt;&gt;"", COUNTIF(C$3:C104, "&lt;&gt;"), "")</f>
         <v>96</v>
@@ -3529,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="14">
         <f>IF(C105&lt;&gt;"", COUNTIF(C$3:C105, "&lt;&gt;"), "")</f>
         <v>97</v>
@@ -3544,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="14">
         <f>IF(C106&lt;&gt;"", COUNTIF(C$3:C106, "&lt;&gt;"), "")</f>
         <v>98</v>
@@ -3559,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="14">
         <f>IF(C107&lt;&gt;"", COUNTIF(C$3:C107, "&lt;&gt;"), "")</f>
         <v>99</v>
@@ -3574,7 +3568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="14">
         <f>IF(C108&lt;&gt;"", COUNTIF(C$3:C108, "&lt;&gt;"), "")</f>
         <v>100</v>
@@ -3589,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="14">
         <f>IF(C109&lt;&gt;"", COUNTIF(C$3:C109, "&lt;&gt;"), "")</f>
         <v>101</v>
@@ -3604,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="14">
         <f>IF(C110&lt;&gt;"", COUNTIF(C$3:C110, "&lt;&gt;"), "")</f>
         <v>102</v>
@@ -3619,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="14">
         <f>IF(C111&lt;&gt;"", COUNTIF(C$3:C111, "&lt;&gt;"), "")</f>
         <v>103</v>
@@ -3634,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="14">
         <f>IF(C112&lt;&gt;"", COUNTIF(C$3:C112, "&lt;&gt;"), "")</f>
         <v>104</v>
@@ -3649,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="14">
         <f>IF(C113&lt;&gt;"", COUNTIF(C$3:C113, "&lt;&gt;"), "")</f>
         <v>105</v>
@@ -3664,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="14">
         <f>IF(C114&lt;&gt;"", COUNTIF(C$3:C114, "&lt;&gt;"), "")</f>
         <v>106</v>
@@ -3679,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="14">
         <f>IF(C115&lt;&gt;"", COUNTIF(C$3:C115, "&lt;&gt;"), "")</f>
         <v>107</v>
@@ -3694,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="14">
         <f>IF(C116&lt;&gt;"", COUNTIF(C$3:C116, "&lt;&gt;"), "")</f>
         <v>108</v>
@@ -3709,7 +3703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B117" s="14">
         <f>IF(C117&lt;&gt;"", COUNTIF(C$3:C117, "&lt;&gt;"), "")</f>
         <v>109</v>
@@ -3724,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B118" s="14">
         <f>IF(C118&lt;&gt;"", COUNTIF(C$3:C118, "&lt;&gt;"), "")</f>
         <v>110</v>
@@ -3739,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B119" s="14">
         <f>IF(C119&lt;&gt;"", COUNTIF(C$3:C119, "&lt;&gt;"), "")</f>
         <v>111</v>
@@ -3754,7 +3748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B120" s="14">
         <f>IF(C120&lt;&gt;"", COUNTIF(C$3:C120, "&lt;&gt;"), "")</f>
         <v>112</v>
@@ -3769,7 +3763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B121" s="14">
         <f>IF(C121&lt;&gt;"", COUNTIF(C$3:C121, "&lt;&gt;"), "")</f>
         <v>113</v>
@@ -3784,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B122" s="14">
         <f>IF(C122&lt;&gt;"", COUNTIF(C$3:C122, "&lt;&gt;"), "")</f>
         <v>114</v>
@@ -3799,7 +3793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B123" s="14">
         <f>IF(C123&lt;&gt;"", COUNTIF(C$3:C123, "&lt;&gt;"), "")</f>
         <v>115</v>
@@ -3814,7 +3808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="14">
         <f>IF(C124&lt;&gt;"", COUNTIF(C$3:C124, "&lt;&gt;"), "")</f>
         <v>116</v>
@@ -3829,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="14">
         <f>IF(C125&lt;&gt;"", COUNTIF(C$3:C125, "&lt;&gt;"), "")</f>
         <v>117</v>
@@ -3844,7 +3838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="14">
         <f>IF(C126&lt;&gt;"", COUNTIF(C$3:C126, "&lt;&gt;"), "")</f>
         <v>118</v>
@@ -3859,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="14">
         <f>IF(C127&lt;&gt;"", COUNTIF(C$3:C127, "&lt;&gt;"), "")</f>
         <v>119</v>
@@ -3874,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B128" s="14">
         <f>IF(C128&lt;&gt;"", COUNTIF(C$3:C128, "&lt;&gt;"), "")</f>
         <v>120</v>
@@ -3889,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129" s="14">
         <f>IF(C129&lt;&gt;"", COUNTIF(C$3:C129, "&lt;&gt;"), "")</f>
         <v>121</v>
@@ -3904,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130" s="14">
         <f>IF(C130&lt;&gt;"", COUNTIF(C$3:C130, "&lt;&gt;"), "")</f>
         <v>122</v>
@@ -3919,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131" s="14">
         <f>IF(C131&lt;&gt;"", COUNTIF(C$3:C131, "&lt;&gt;"), "")</f>
         <v>123</v>
@@ -3934,7 +3928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" s="14">
         <f>IF(C132&lt;&gt;"", COUNTIF(C$3:C132, "&lt;&gt;"), "")</f>
         <v>124</v>
@@ -3949,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="14">
         <f>IF(C133&lt;&gt;"", COUNTIF(C$3:C133, "&lt;&gt;"), "")</f>
         <v>125</v>
@@ -3964,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" s="14" t="str">
         <f>IF(C134&lt;&gt;"", COUNTIF(C$3:C134, "&lt;&gt;"), "")</f>
         <v/>
@@ -3973,7 +3967,7 @@
       <c r="D134" s="4"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" s="14" t="str">
         <f>IF(C135&lt;&gt;"", COUNTIF(C$3:C135, "&lt;&gt;"), "")</f>
         <v/>
@@ -3982,7 +3976,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="14">
         <f>IF(C136&lt;&gt;"", COUNTIF(C$3:C136, "&lt;&gt;"), "")</f>
         <v>126</v>
@@ -3997,7 +3991,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="14">
         <f>IF(C137&lt;&gt;"", COUNTIF(C$3:C137, "&lt;&gt;"), "")</f>
         <v>127</v>
@@ -4012,7 +4006,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138" s="14">
         <f>IF(C138&lt;&gt;"", COUNTIF(C$3:C138, "&lt;&gt;"), "")</f>
         <v>128</v>
@@ -4027,7 +4021,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139" s="14">
         <f>IF(C139&lt;&gt;"", COUNTIF(C$3:C139, "&lt;&gt;"), "")</f>
         <v>129</v>
@@ -4042,7 +4036,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="14">
         <f>IF(C140&lt;&gt;"", COUNTIF(C$3:C140, "&lt;&gt;"), "")</f>
         <v>130</v>
@@ -4057,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141" s="14">
         <f>IF(C141&lt;&gt;"", COUNTIF(C$3:C141, "&lt;&gt;"), "")</f>
         <v>131</v>
@@ -4072,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B142" s="14">
         <f>IF(C142&lt;&gt;"", COUNTIF(C$3:C142, "&lt;&gt;"), "")</f>
         <v>132</v>
@@ -4087,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="14">
         <f>IF(C143&lt;&gt;"", COUNTIF(C$3:C143, "&lt;&gt;"), "")</f>
         <v>133</v>
@@ -4102,7 +4096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="14">
         <f>IF(C144&lt;&gt;"", COUNTIF(C$3:C144, "&lt;&gt;"), "")</f>
         <v>134</v>
@@ -4117,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145" s="14">
         <f>IF(C145&lt;&gt;"", COUNTIF(C$3:C145, "&lt;&gt;"), "")</f>
         <v>135</v>
@@ -4132,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146" s="14">
         <f>IF(C146&lt;&gt;"", COUNTIF(C$3:C146, "&lt;&gt;"), "")</f>
         <v>136</v>
@@ -4147,7 +4141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="14">
         <f>IF(C147&lt;&gt;"", COUNTIF(C$3:C147, "&lt;&gt;"), "")</f>
         <v>137</v>
@@ -4162,7 +4156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="14">
         <f>IF(C148&lt;&gt;"", COUNTIF(C$3:C148, "&lt;&gt;"), "")</f>
         <v>138</v>
@@ -4177,7 +4171,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="14">
         <f>IF(C149&lt;&gt;"", COUNTIF(C$3:C149, "&lt;&gt;"), "")</f>
         <v>139</v>
@@ -4192,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150" s="14">
         <f>IF(C150&lt;&gt;"", COUNTIF(C$3:C150, "&lt;&gt;"), "")</f>
         <v>140</v>
@@ -4207,7 +4201,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151" s="14">
         <f>IF(C151&lt;&gt;"", COUNTIF(C$3:C151, "&lt;&gt;"), "")</f>
         <v>141</v>
@@ -4222,7 +4216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152" s="14">
         <f>IF(C152&lt;&gt;"", COUNTIF(C$3:C152, "&lt;&gt;"), "")</f>
         <v>142</v>
@@ -4237,7 +4231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153" s="14">
         <f>IF(C153&lt;&gt;"", COUNTIF(C$3:C153, "&lt;&gt;"), "")</f>
         <v>143</v>
@@ -4252,7 +4246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154" s="14">
         <f>IF(C154&lt;&gt;"", COUNTIF(C$3:C154, "&lt;&gt;"), "")</f>
         <v>144</v>
@@ -4267,7 +4261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="14">
         <f>IF(C155&lt;&gt;"", COUNTIF(C$3:C155, "&lt;&gt;"), "")</f>
         <v>145</v>
@@ -4282,7 +4276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156" s="14">
         <f>IF(C156&lt;&gt;"", COUNTIF(C$3:C156, "&lt;&gt;"), "")</f>
         <v>146</v>
@@ -4297,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157" s="14">
         <f>IF(C157&lt;&gt;"", COUNTIF(C$3:C157, "&lt;&gt;"), "")</f>
         <v>147</v>
@@ -4312,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="14">
         <f>IF(C158&lt;&gt;"", COUNTIF(C$3:C158, "&lt;&gt;"), "")</f>
         <v>148</v>
@@ -4327,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="14">
         <f>IF(C159&lt;&gt;"", COUNTIF(C$3:C159, "&lt;&gt;"), "")</f>
         <v>149</v>
@@ -4342,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160" s="14">
         <f>IF(C160&lt;&gt;"", COUNTIF(C$3:C160, "&lt;&gt;"), "")</f>
         <v>150</v>
@@ -4357,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" s="14">
         <f>IF(C161&lt;&gt;"", COUNTIF(C$3:C161, "&lt;&gt;"), "")</f>
         <v>151</v>
@@ -4372,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="14">
         <f>IF(C162&lt;&gt;"", COUNTIF(C$3:C162, "&lt;&gt;"), "")</f>
         <v>152</v>
@@ -4387,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" s="14">
         <f>IF(C163&lt;&gt;"", COUNTIF(C$3:C163, "&lt;&gt;"), "")</f>
         <v>153</v>
@@ -4402,7 +4396,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" s="14">
         <f>IF(C164&lt;&gt;"", COUNTIF(C$3:C164, "&lt;&gt;"), "")</f>
         <v>154</v>
@@ -4417,7 +4411,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="14">
         <f>IF(C165&lt;&gt;"", COUNTIF(C$3:C165, "&lt;&gt;"), "")</f>
         <v>155</v>
@@ -4432,7 +4426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="14">
         <f>IF(C166&lt;&gt;"", COUNTIF(C$3:C166, "&lt;&gt;"), "")</f>
         <v>156</v>
@@ -4447,7 +4441,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" s="14">
         <f>IF(C167&lt;&gt;"", COUNTIF(C$3:C167, "&lt;&gt;"), "")</f>
         <v>157</v>
@@ -4462,7 +4456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" s="14">
         <f>IF(C168&lt;&gt;"", COUNTIF(C$3:C168, "&lt;&gt;"), "")</f>
         <v>158</v>
@@ -4477,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="14">
         <f>IF(C169&lt;&gt;"", COUNTIF(C$3:C169, "&lt;&gt;"), "")</f>
         <v>159</v>
@@ -4492,7 +4486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="14">
         <f>IF(C170&lt;&gt;"", COUNTIF(C$3:C170, "&lt;&gt;"), "")</f>
         <v>160</v>
@@ -4507,7 +4501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="14">
         <f>IF(C171&lt;&gt;"", COUNTIF(C$3:C171, "&lt;&gt;"), "")</f>
         <v>161</v>
@@ -4522,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" s="14" t="str">
         <f>IF(C172&lt;&gt;"", COUNTIF(C$3:C172, "&lt;&gt;"), "")</f>
         <v/>
@@ -4531,7 +4525,7 @@
       <c r="D172" s="4"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" s="14" t="str">
         <f>IF(C173&lt;&gt;"", COUNTIF(C$3:C173, "&lt;&gt;"), "")</f>
         <v/>
@@ -4540,7 +4534,7 @@
       <c r="D173" s="8"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174" s="14">
         <f>IF(C174&lt;&gt;"", COUNTIF(C$3:C174, "&lt;&gt;"), "")</f>
         <v>162</v>
@@ -4552,10 +4546,10 @@
         <v>171</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" s="14">
         <f>IF(C175&lt;&gt;"", COUNTIF(C$3:C175, "&lt;&gt;"), "")</f>
         <v>163</v>
@@ -4567,10 +4561,10 @@
         <v>172</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" s="14">
         <f>IF(C176&lt;&gt;"", COUNTIF(C$3:C176, "&lt;&gt;"), "")</f>
         <v>164</v>
@@ -4582,10 +4576,10 @@
         <v>173</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="14">
         <f>IF(C177&lt;&gt;"", COUNTIF(C$3:C177, "&lt;&gt;"), "")</f>
         <v>165</v>
@@ -4597,10 +4591,10 @@
         <v>174</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B178" s="14">
         <f>IF(C178&lt;&gt;"", COUNTIF(C$3:C178, "&lt;&gt;"), "")</f>
         <v>166</v>
@@ -4612,10 +4606,10 @@
         <v>175</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B179" s="14">
         <f>IF(C179&lt;&gt;"", COUNTIF(C$3:C179, "&lt;&gt;"), "")</f>
         <v>167</v>
@@ -4627,10 +4621,10 @@
         <v>176</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="14">
         <f>IF(C180&lt;&gt;"", COUNTIF(C$3:C180, "&lt;&gt;"), "")</f>
         <v>168</v>
@@ -4642,10 +4636,10 @@
         <v>177</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="14">
         <f>IF(C181&lt;&gt;"", COUNTIF(C$3:C181, "&lt;&gt;"), "")</f>
         <v>169</v>
@@ -4657,10 +4651,10 @@
         <v>178</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B182" s="14">
         <f>IF(C182&lt;&gt;"", COUNTIF(C$3:C182, "&lt;&gt;"), "")</f>
         <v>170</v>
@@ -4672,10 +4666,10 @@
         <v>179</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B183" s="14">
         <f>IF(C183&lt;&gt;"", COUNTIF(C$3:C183, "&lt;&gt;"), "")</f>
         <v>171</v>
@@ -4687,10 +4681,10 @@
         <v>180</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="14">
         <f>IF(C184&lt;&gt;"", COUNTIF(C$3:C184, "&lt;&gt;"), "")</f>
         <v>172</v>
@@ -4702,10 +4696,10 @@
         <v>181</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B185" s="14">
         <f>IF(C185&lt;&gt;"", COUNTIF(C$3:C185, "&lt;&gt;"), "")</f>
         <v>173</v>
@@ -4717,10 +4711,10 @@
         <v>182</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B186" s="14">
         <f>IF(C186&lt;&gt;"", COUNTIF(C$3:C186, "&lt;&gt;"), "")</f>
         <v>174</v>
@@ -4732,10 +4726,10 @@
         <v>183</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="14">
         <f>IF(C187&lt;&gt;"", COUNTIF(C$3:C187, "&lt;&gt;"), "")</f>
         <v>175</v>
@@ -4747,10 +4741,10 @@
         <v>184</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="14">
         <f>IF(C188&lt;&gt;"", COUNTIF(C$3:C188, "&lt;&gt;"), "")</f>
         <v>176</v>
@@ -4762,10 +4756,10 @@
         <v>185</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189" s="14">
         <f>IF(C189&lt;&gt;"", COUNTIF(C$3:C189, "&lt;&gt;"), "")</f>
         <v>177</v>
@@ -4777,10 +4771,10 @@
         <v>186</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190" s="14">
         <f>IF(C190&lt;&gt;"", COUNTIF(C$3:C190, "&lt;&gt;"), "")</f>
         <v>178</v>
@@ -4789,13 +4783,13 @@
         <v>170</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="14">
         <f>IF(C191&lt;&gt;"", COUNTIF(C$3:C191, "&lt;&gt;"), "")</f>
         <v>179</v>
@@ -4807,10 +4801,10 @@
         <v>187</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="14">
         <f>IF(C192&lt;&gt;"", COUNTIF(C$3:C192, "&lt;&gt;"), "")</f>
         <v>180</v>
@@ -4822,10 +4816,10 @@
         <v>188</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="14">
         <f>IF(C193&lt;&gt;"", COUNTIF(C$3:C193, "&lt;&gt;"), "")</f>
         <v>181</v>
@@ -4837,10 +4831,10 @@
         <v>189</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B194" s="14">
         <f>IF(C194&lt;&gt;"", COUNTIF(C$3:C194, "&lt;&gt;"), "")</f>
         <v>182</v>
@@ -4855,7 +4849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B195" s="14">
         <f>IF(C195&lt;&gt;"", COUNTIF(C$3:C195, "&lt;&gt;"), "")</f>
         <v>183</v>
@@ -4867,10 +4861,10 @@
         <v>191</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B196" s="14">
         <f>IF(C196&lt;&gt;"", COUNTIF(C$3:C196, "&lt;&gt;"), "")</f>
         <v>184</v>
@@ -4882,10 +4876,10 @@
         <v>192</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B197" s="14">
         <f>IF(C197&lt;&gt;"", COUNTIF(C$3:C197, "&lt;&gt;"), "")</f>
         <v>185</v>
@@ -4900,7 +4894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B198" s="14">
         <f>IF(C198&lt;&gt;"", COUNTIF(C$3:C198, "&lt;&gt;"), "")</f>
         <v>186</v>
@@ -4915,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="14">
         <f>IF(C199&lt;&gt;"", COUNTIF(C$3:C199, "&lt;&gt;"), "")</f>
         <v>187</v>
@@ -4927,10 +4921,10 @@
         <v>195</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B200" s="14">
         <f>IF(C200&lt;&gt;"", COUNTIF(C$3:C200, "&lt;&gt;"), "")</f>
         <v>188</v>
@@ -4945,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B201" s="14">
         <f>IF(C201&lt;&gt;"", COUNTIF(C$3:C201, "&lt;&gt;"), "")</f>
         <v>189</v>
@@ -4957,10 +4951,10 @@
         <v>197</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="14">
         <f>IF(C202&lt;&gt;"", COUNTIF(C$3:C202, "&lt;&gt;"), "")</f>
         <v>190</v>
@@ -4972,10 +4966,10 @@
         <v>198</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="14">
         <f>IF(C203&lt;&gt;"", COUNTIF(C$3:C203, "&lt;&gt;"), "")</f>
         <v>191</v>
@@ -4987,10 +4981,10 @@
         <v>199</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B204" s="14">
         <f>IF(C204&lt;&gt;"", COUNTIF(C$3:C204, "&lt;&gt;"), "")</f>
         <v>192</v>
@@ -5002,10 +4996,10 @@
         <v>200</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B205" s="14">
         <f>IF(C205&lt;&gt;"", COUNTIF(C$3:C205, "&lt;&gt;"), "")</f>
         <v>193</v>
@@ -5020,7 +5014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206" s="14">
         <f>IF(C206&lt;&gt;"", COUNTIF(C$3:C206, "&lt;&gt;"), "")</f>
         <v>194</v>
@@ -5032,10 +5026,10 @@
         <v>202</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B207" s="14">
         <f>IF(C207&lt;&gt;"", COUNTIF(C$3:C207, "&lt;&gt;"), "")</f>
         <v>195</v>
@@ -5050,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B208" s="14">
         <f>IF(C208&lt;&gt;"", COUNTIF(C$3:C208, "&lt;&gt;"), "")</f>
         <v>196</v>
@@ -5062,10 +5056,10 @@
         <v>204</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209" s="14">
         <f>IF(C209&lt;&gt;"", COUNTIF(C$3:C209, "&lt;&gt;"), "")</f>
         <v>197</v>
@@ -5077,10 +5071,10 @@
         <v>466</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210" s="14" t="str">
         <f>IF(C210&lt;&gt;"", COUNTIF(C$3:C210, "&lt;&gt;"), "")</f>
         <v/>
@@ -5089,7 +5083,7 @@
       <c r="D210" s="8"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B211" s="14">
         <f>IF(C211&lt;&gt;"", COUNTIF(C$3:C211, "&lt;&gt;"), "")</f>
         <v>198</v>
@@ -5101,10 +5095,10 @@
         <v>206</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B212" s="14">
         <f>IF(C212&lt;&gt;"", COUNTIF(C$3:C212, "&lt;&gt;"), "")</f>
         <v>199</v>
@@ -5119,7 +5113,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213" s="14">
         <f>IF(C213&lt;&gt;"", COUNTIF(C$3:C213, "&lt;&gt;"), "")</f>
         <v>200</v>
@@ -5131,10 +5125,10 @@
         <v>208</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214" s="14">
         <f>IF(C214&lt;&gt;"", COUNTIF(C$3:C214, "&lt;&gt;"), "")</f>
         <v>201</v>
@@ -5146,10 +5140,10 @@
         <v>209</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215" s="14">
         <f>IF(C215&lt;&gt;"", COUNTIF(C$3:C215, "&lt;&gt;"), "")</f>
         <v>202</v>
@@ -5164,7 +5158,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B216" s="14">
         <f>IF(C216&lt;&gt;"", COUNTIF(C$3:C216, "&lt;&gt;"), "")</f>
         <v>203</v>
@@ -5179,7 +5173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B217" s="14">
         <f>IF(C217&lt;&gt;"", COUNTIF(C$3:C217, "&lt;&gt;"), "")</f>
         <v>204</v>
@@ -5194,7 +5188,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B218" s="14">
         <f>IF(C218&lt;&gt;"", COUNTIF(C$3:C218, "&lt;&gt;"), "")</f>
         <v>205</v>
@@ -5209,7 +5203,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B219" s="14">
         <f>IF(C219&lt;&gt;"", COUNTIF(C$3:C219, "&lt;&gt;"), "")</f>
         <v>206</v>
@@ -5224,7 +5218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B220" s="14">
         <f>IF(C220&lt;&gt;"", COUNTIF(C$3:C220, "&lt;&gt;"), "")</f>
         <v>207</v>
@@ -5239,7 +5233,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221" s="14">
         <f>IF(C221&lt;&gt;"", COUNTIF(C$3:C221, "&lt;&gt;"), "")</f>
         <v>208</v>
@@ -5254,7 +5248,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B222" s="14">
         <f>IF(C222&lt;&gt;"", COUNTIF(C$3:C222, "&lt;&gt;"), "")</f>
         <v>209</v>
@@ -5266,10 +5260,10 @@
         <v>217</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B223" s="14">
         <f>IF(C223&lt;&gt;"", COUNTIF(C$3:C223, "&lt;&gt;"), "")</f>
         <v>210</v>
@@ -5281,10 +5275,10 @@
         <v>218</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224" s="14">
         <f>IF(C224&lt;&gt;"", COUNTIF(C$3:C224, "&lt;&gt;"), "")</f>
         <v>211</v>
@@ -5299,7 +5293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="14">
         <f>IF(C225&lt;&gt;"", COUNTIF(C$3:C225, "&lt;&gt;"), "")</f>
         <v>212</v>
@@ -5314,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B226" s="14">
         <f>IF(C226&lt;&gt;"", COUNTIF(C$3:C226, "&lt;&gt;"), "")</f>
         <v>213</v>
@@ -5329,7 +5323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B227" s="14">
         <f>IF(C227&lt;&gt;"", COUNTIF(C$3:C227, "&lt;&gt;"), "")</f>
         <v>214</v>
@@ -5344,7 +5338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" s="14">
         <f>IF(C228&lt;&gt;"", COUNTIF(C$3:C228, "&lt;&gt;"), "")</f>
         <v>215</v>
@@ -5359,7 +5353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B229" s="14">
         <f>IF(C229&lt;&gt;"", COUNTIF(C$3:C229, "&lt;&gt;"), "")</f>
         <v>216</v>
@@ -5374,7 +5368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B230" s="14">
         <f>IF(C230&lt;&gt;"", COUNTIF(C$3:C230, "&lt;&gt;"), "")</f>
         <v>217</v>
@@ -5389,7 +5383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231" s="14">
         <f>IF(C231&lt;&gt;"", COUNTIF(C$3:C231, "&lt;&gt;"), "")</f>
         <v>218</v>
@@ -5404,7 +5398,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232" s="14">
         <f>IF(C232&lt;&gt;"", COUNTIF(C$3:C232, "&lt;&gt;"), "")</f>
         <v>219</v>
@@ -5419,7 +5413,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B233" s="14" t="str">
         <f>IF(C233&lt;&gt;"", COUNTIF(C$3:C233, "&lt;&gt;"), "")</f>
         <v/>
@@ -5428,7 +5422,7 @@
       <c r="D233" s="8"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B234" s="14" t="str">
         <f>IF(C234&lt;&gt;"", COUNTIF(C$3:C234, "&lt;&gt;"), "")</f>
         <v/>
@@ -5437,7 +5431,7 @@
       <c r="D234" s="8"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235" s="14">
         <f>IF(C235&lt;&gt;"", COUNTIF(C$3:C235, "&lt;&gt;"), "")</f>
         <v>220</v>
@@ -5452,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236" s="14">
         <f>IF(C236&lt;&gt;"", COUNTIF(C$3:C236, "&lt;&gt;"), "")</f>
         <v>221</v>
@@ -5467,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237" s="14">
         <f>IF(C237&lt;&gt;"", COUNTIF(C$3:C237, "&lt;&gt;"), "")</f>
         <v>222</v>
@@ -5482,7 +5476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B238" s="14">
         <f>IF(C238&lt;&gt;"", COUNTIF(C$3:C238, "&lt;&gt;"), "")</f>
         <v>223</v>
@@ -5497,7 +5491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B239" s="14">
         <f>IF(C239&lt;&gt;"", COUNTIF(C$3:C239, "&lt;&gt;"), "")</f>
         <v>224</v>
@@ -5512,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B240" s="14">
         <f>IF(C240&lt;&gt;"", COUNTIF(C$3:C240, "&lt;&gt;"), "")</f>
         <v>225</v>
@@ -5527,7 +5521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B241" s="14">
         <f>IF(C241&lt;&gt;"", COUNTIF(C$3:C241, "&lt;&gt;"), "")</f>
         <v>226</v>
@@ -5542,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B242" s="14">
         <f>IF(C242&lt;&gt;"", COUNTIF(C$3:C242, "&lt;&gt;"), "")</f>
         <v>227</v>
@@ -5557,7 +5551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B243" s="14">
         <f>IF(C243&lt;&gt;"", COUNTIF(C$3:C243, "&lt;&gt;"), "")</f>
         <v>228</v>
@@ -5572,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B244" s="14">
         <f>IF(C244&lt;&gt;"", COUNTIF(C$3:C244, "&lt;&gt;"), "")</f>
         <v>229</v>
@@ -5587,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B245" s="14">
         <f>IF(C245&lt;&gt;"", COUNTIF(C$3:C245, "&lt;&gt;"), "")</f>
         <v>230</v>
@@ -5602,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B246" s="14">
         <f>IF(C246&lt;&gt;"", COUNTIF(C$3:C246, "&lt;&gt;"), "")</f>
         <v>231</v>
@@ -5617,7 +5611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B247" s="14">
         <f>IF(C247&lt;&gt;"", COUNTIF(C$3:C247, "&lt;&gt;"), "")</f>
         <v>232</v>
@@ -5632,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B248" s="14">
         <f>IF(C248&lt;&gt;"", COUNTIF(C$3:C248, "&lt;&gt;"), "")</f>
         <v>233</v>
@@ -5647,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B249" s="14">
         <f>IF(C249&lt;&gt;"", COUNTIF(C$3:C249, "&lt;&gt;"), "")</f>
         <v>234</v>
@@ -5662,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B250" s="14">
         <f>IF(C250&lt;&gt;"", COUNTIF(C$3:C250, "&lt;&gt;"), "")</f>
         <v>235</v>
@@ -5677,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B251" s="14">
         <f>IF(C251&lt;&gt;"", COUNTIF(C$3:C251, "&lt;&gt;"), "")</f>
         <v>236</v>
@@ -5692,7 +5686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B252" s="14">
         <f>IF(C252&lt;&gt;"", COUNTIF(C$3:C252, "&lt;&gt;"), "")</f>
         <v>237</v>
@@ -5707,7 +5701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B253" s="14">
         <f>IF(C253&lt;&gt;"", COUNTIF(C$3:C253, "&lt;&gt;"), "")</f>
         <v>238</v>
@@ -5722,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B254" s="14">
         <f>IF(C254&lt;&gt;"", COUNTIF(C$3:C254, "&lt;&gt;"), "")</f>
         <v>239</v>
@@ -5737,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B255" s="14">
         <f>IF(C255&lt;&gt;"", COUNTIF(C$3:C255, "&lt;&gt;"), "")</f>
         <v>240</v>
@@ -5752,7 +5746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B256" s="14">
         <f>IF(C256&lt;&gt;"", COUNTIF(C$3:C256, "&lt;&gt;"), "")</f>
         <v>241</v>
@@ -5767,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B257" s="14">
         <f>IF(C257&lt;&gt;"", COUNTIF(C$3:C257, "&lt;&gt;"), "")</f>
         <v>242</v>
@@ -5782,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B258" s="14">
         <f>IF(C258&lt;&gt;"", COUNTIF(C$3:C258, "&lt;&gt;"), "")</f>
         <v>243</v>
@@ -5797,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B259" s="14">
         <f>IF(C259&lt;&gt;"", COUNTIF(C$3:C259, "&lt;&gt;"), "")</f>
         <v>244</v>
@@ -5812,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B260" s="14">
         <f>IF(C260&lt;&gt;"", COUNTIF(C$3:C260, "&lt;&gt;"), "")</f>
         <v>245</v>
@@ -5827,7 +5821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B261" s="14">
         <f>IF(C261&lt;&gt;"", COUNTIF(C$3:C261, "&lt;&gt;"), "")</f>
         <v>246</v>
@@ -5842,7 +5836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B262" s="14">
         <f>IF(C262&lt;&gt;"", COUNTIF(C$3:C262, "&lt;&gt;"), "")</f>
         <v>247</v>
@@ -5857,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B263" s="14">
         <f>IF(C263&lt;&gt;"", COUNTIF(C$3:C263, "&lt;&gt;"), "")</f>
         <v>248</v>
@@ -5872,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B264" s="14">
         <f>IF(C264&lt;&gt;"", COUNTIF(C$3:C264, "&lt;&gt;"), "")</f>
         <v>249</v>
@@ -5887,7 +5881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B265" s="14">
         <f>IF(C265&lt;&gt;"", COUNTIF(C$3:C265, "&lt;&gt;"), "")</f>
         <v>250</v>
@@ -5902,7 +5896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B266" s="14">
         <f>IF(C266&lt;&gt;"", COUNTIF(C$3:C266, "&lt;&gt;"), "")</f>
         <v>251</v>
@@ -5917,7 +5911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B267" s="14">
         <f>IF(C267&lt;&gt;"", COUNTIF(C$3:C267, "&lt;&gt;"), "")</f>
         <v>252</v>
@@ -5932,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B268" s="14">
         <f>IF(C268&lt;&gt;"", COUNTIF(C$3:C268, "&lt;&gt;"), "")</f>
         <v>253</v>
@@ -5947,7 +5941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B269" s="14">
         <f>IF(C269&lt;&gt;"", COUNTIF(C$3:C269, "&lt;&gt;"), "")</f>
         <v>254</v>
@@ -5962,7 +5956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B270" s="14" t="str">
         <f>IF(C270&lt;&gt;"", COUNTIF(C$3:C270, "&lt;&gt;"), "")</f>
         <v/>
@@ -5971,7 +5965,7 @@
       <c r="D270" s="8"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B271" s="14" t="str">
         <f>IF(C271&lt;&gt;"", COUNTIF(C$3:C271, "&lt;&gt;"), "")</f>
         <v/>
@@ -5980,7 +5974,7 @@
       <c r="D271" s="8"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B272" s="14">
         <f>IF(C272&lt;&gt;"", COUNTIF(C$3:C272, "&lt;&gt;"), "")</f>
         <v>255</v>
@@ -5995,7 +5989,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B273" s="14">
         <f>IF(C273&lt;&gt;"", COUNTIF(C$3:C273, "&lt;&gt;"), "")</f>
         <v>256</v>
@@ -6010,7 +6004,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B274" s="14">
         <f>IF(C274&lt;&gt;"", COUNTIF(C$3:C274, "&lt;&gt;"), "")</f>
         <v>257</v>
@@ -6025,7 +6019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" s="14">
         <f>IF(C275&lt;&gt;"", COUNTIF(C$3:C275, "&lt;&gt;"), "")</f>
         <v>258</v>
@@ -6040,7 +6034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" s="14">
         <f>IF(C276&lt;&gt;"", COUNTIF(C$3:C276, "&lt;&gt;"), "")</f>
         <v>259</v>
@@ -6055,7 +6049,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B277" s="14">
         <f>IF(C277&lt;&gt;"", COUNTIF(C$3:C277, "&lt;&gt;"), "")</f>
         <v>260</v>
@@ -6070,7 +6064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B278" s="14">
         <f>IF(C278&lt;&gt;"", COUNTIF(C$3:C278, "&lt;&gt;"), "")</f>
         <v>261</v>
@@ -6085,7 +6079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" s="14">
         <f>IF(C279&lt;&gt;"", COUNTIF(C$3:C279, "&lt;&gt;"), "")</f>
         <v>262</v>
@@ -6100,7 +6094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" s="14">
         <f>IF(C280&lt;&gt;"", COUNTIF(C$3:C280, "&lt;&gt;"), "")</f>
         <v>263</v>
@@ -6115,7 +6109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" s="14">
         <f>IF(C281&lt;&gt;"", COUNTIF(C$3:C281, "&lt;&gt;"), "")</f>
         <v>264</v>
@@ -6130,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B282" s="14">
         <f>IF(C282&lt;&gt;"", COUNTIF(C$3:C282, "&lt;&gt;"), "")</f>
         <v>265</v>
@@ -6145,7 +6139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B283" s="14">
         <f>IF(C283&lt;&gt;"", COUNTIF(C$3:C283, "&lt;&gt;"), "")</f>
         <v>266</v>
@@ -6160,7 +6154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B284" s="14">
         <f>IF(C284&lt;&gt;"", COUNTIF(C$3:C284, "&lt;&gt;"), "")</f>
         <v>267</v>
@@ -6175,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B285" s="14">
         <f>IF(C285&lt;&gt;"", COUNTIF(C$3:C285, "&lt;&gt;"), "")</f>
         <v>268</v>
@@ -6190,7 +6184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B286" s="14">
         <f>IF(C286&lt;&gt;"", COUNTIF(C$3:C286, "&lt;&gt;"), "")</f>
         <v>269</v>
@@ -6205,7 +6199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" s="14">
         <f>IF(C287&lt;&gt;"", COUNTIF(C$3:C287, "&lt;&gt;"), "")</f>
         <v>270</v>
@@ -6220,7 +6214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B288" s="14">
         <f>IF(C288&lt;&gt;"", COUNTIF(C$3:C288, "&lt;&gt;"), "")</f>
         <v>271</v>
@@ -6235,7 +6229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B289" s="14">
         <f>IF(C289&lt;&gt;"", COUNTIF(C$3:C289, "&lt;&gt;"), "")</f>
         <v>272</v>
@@ -6250,7 +6244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" s="14">
         <f>IF(C290&lt;&gt;"", COUNTIF(C$3:C290, "&lt;&gt;"), "")</f>
         <v>273</v>
@@ -6265,7 +6259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" s="14" t="str">
         <f>IF(C291&lt;&gt;"", COUNTIF(C$3:C291, "&lt;&gt;"), "")</f>
         <v/>
@@ -6274,7 +6268,7 @@
       <c r="D291" s="8"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B292" s="14" t="str">
         <f>IF(C292&lt;&gt;"", COUNTIF(C$3:C292, "&lt;&gt;"), "")</f>
         <v/>
@@ -6283,7 +6277,7 @@
       <c r="D292" s="8"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B293" s="14">
         <f>IF(C293&lt;&gt;"", COUNTIF(C$3:C293, "&lt;&gt;"), "")</f>
         <v>274</v>
@@ -6298,7 +6292,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" s="14">
         <f>IF(C294&lt;&gt;"", COUNTIF(C$3:C294, "&lt;&gt;"), "")</f>
         <v>275</v>
@@ -6313,7 +6307,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B295" s="14">
         <f>IF(C295&lt;&gt;"", COUNTIF(C$3:C295, "&lt;&gt;"), "")</f>
         <v>276</v>
@@ -6328,7 +6322,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B296" s="14">
         <f>IF(C296&lt;&gt;"", COUNTIF(C$3:C296, "&lt;&gt;"), "")</f>
         <v>277</v>
@@ -6343,7 +6337,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" s="14">
         <f>IF(C297&lt;&gt;"", COUNTIF(C$3:C297, "&lt;&gt;"), "")</f>
         <v>278</v>
@@ -6358,7 +6352,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" s="14">
         <f>IF(C298&lt;&gt;"", COUNTIF(C$3:C298, "&lt;&gt;"), "")</f>
         <v>279</v>
@@ -6373,7 +6367,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B299" s="14">
         <f>IF(C299&lt;&gt;"", COUNTIF(C$3:C299, "&lt;&gt;"), "")</f>
         <v>280</v>
@@ -6388,7 +6382,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B300" s="14">
         <f>IF(C300&lt;&gt;"", COUNTIF(C$3:C300, "&lt;&gt;"), "")</f>
         <v>281</v>
@@ -6403,7 +6397,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" s="14">
         <f>IF(C301&lt;&gt;"", COUNTIF(C$3:C301, "&lt;&gt;"), "")</f>
         <v>282</v>
@@ -6418,7 +6412,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" s="14">
         <f>IF(C302&lt;&gt;"", COUNTIF(C$3:C302, "&lt;&gt;"), "")</f>
         <v>283</v>
@@ -6433,7 +6427,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" s="14">
         <f>IF(C303&lt;&gt;"", COUNTIF(C$3:C303, "&lt;&gt;"), "")</f>
         <v>284</v>
@@ -6448,7 +6442,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B304" s="14">
         <f>IF(C304&lt;&gt;"", COUNTIF(C$3:C304, "&lt;&gt;"), "")</f>
         <v>285</v>
@@ -6463,7 +6457,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B305" s="14">
         <f>IF(C305&lt;&gt;"", COUNTIF(C$3:C305, "&lt;&gt;"), "")</f>
         <v>286</v>
@@ -6478,7 +6472,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B306" s="14">
         <f>IF(C306&lt;&gt;"", COUNTIF(C$3:C306, "&lt;&gt;"), "")</f>
         <v>287</v>
@@ -6493,7 +6487,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B307" s="14">
         <f>IF(C307&lt;&gt;"", COUNTIF(C$3:C307, "&lt;&gt;"), "")</f>
         <v>288</v>
@@ -6508,7 +6502,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B308" s="14">
         <f>IF(C308&lt;&gt;"", COUNTIF(C$3:C308, "&lt;&gt;"), "")</f>
         <v>289</v>
@@ -6520,10 +6514,10 @@
         <v>299</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B309" s="14">
         <f>IF(C309&lt;&gt;"", COUNTIF(C$3:C309, "&lt;&gt;"), "")</f>
         <v>290</v>
@@ -6538,7 +6532,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B310" s="14">
         <f>IF(C310&lt;&gt;"", COUNTIF(C$3:C310, "&lt;&gt;"), "")</f>
         <v>291</v>
@@ -6553,7 +6547,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B311" s="14">
         <f>IF(C311&lt;&gt;"", COUNTIF(C$3:C311, "&lt;&gt;"), "")</f>
         <v>292</v>
@@ -6568,7 +6562,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B312" s="14">
         <f>IF(C312&lt;&gt;"", COUNTIF(C$3:C312, "&lt;&gt;"), "")</f>
         <v>293</v>
@@ -6583,7 +6577,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B313" s="14">
         <f>IF(C313&lt;&gt;"", COUNTIF(C$3:C313, "&lt;&gt;"), "")</f>
         <v>294</v>
@@ -6598,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B314" s="14">
         <f>IF(C314&lt;&gt;"", COUNTIF(C$3:C314, "&lt;&gt;"), "")</f>
         <v>295</v>
@@ -6613,7 +6607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B315" s="14">
         <f>IF(C315&lt;&gt;"", COUNTIF(C$3:C315, "&lt;&gt;"), "")</f>
         <v>296</v>
@@ -6628,7 +6622,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B316" s="14">
         <f>IF(C316&lt;&gt;"", COUNTIF(C$3:C316, "&lt;&gt;"), "")</f>
         <v>297</v>
@@ -6643,7 +6637,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B317" s="14">
         <f>IF(C317&lt;&gt;"", COUNTIF(C$3:C317, "&lt;&gt;"), "")</f>
         <v>298</v>
@@ -6658,7 +6652,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B318" s="14">
         <f>IF(C318&lt;&gt;"", COUNTIF(C$3:C318, "&lt;&gt;"), "")</f>
         <v>299</v>
@@ -6673,7 +6667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B319" s="14">
         <f>IF(C319&lt;&gt;"", COUNTIF(C$3:C319, "&lt;&gt;"), "")</f>
         <v>300</v>
@@ -6688,7 +6682,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B320" s="14">
         <f>IF(C320&lt;&gt;"", COUNTIF(C$3:C320, "&lt;&gt;"), "")</f>
         <v>301</v>
@@ -6703,7 +6697,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B321" s="14">
         <f>IF(C321&lt;&gt;"", COUNTIF(C$3:C321, "&lt;&gt;"), "")</f>
         <v>302</v>
@@ -6718,7 +6712,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B322" s="14">
         <f>IF(C322&lt;&gt;"", COUNTIF(C$3:C322, "&lt;&gt;"), "")</f>
         <v>303</v>
@@ -6733,7 +6727,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B323" s="14">
         <f>IF(C323&lt;&gt;"", COUNTIF(C$3:C323, "&lt;&gt;"), "")</f>
         <v>304</v>
@@ -6748,7 +6742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B324" s="14">
         <f>IF(C324&lt;&gt;"", COUNTIF(C$3:C324, "&lt;&gt;"), "")</f>
         <v>305</v>
@@ -6763,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B325" s="14">
         <f>IF(C325&lt;&gt;"", COUNTIF(C$3:C325, "&lt;&gt;"), "")</f>
         <v>306</v>
@@ -6778,7 +6772,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B326" s="14">
         <f>IF(C326&lt;&gt;"", COUNTIF(C$3:C326, "&lt;&gt;"), "")</f>
         <v>307</v>
@@ -6793,7 +6787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B327" s="14">
         <f>IF(C327&lt;&gt;"", COUNTIF(C$3:C327, "&lt;&gt;"), "")</f>
         <v>308</v>
@@ -6808,7 +6802,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B328" s="14">
         <f>IF(C328&lt;&gt;"", COUNTIF(C$3:C328, "&lt;&gt;"), "")</f>
         <v>309</v>
@@ -6823,7 +6817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B329" s="14">
         <f>IF(C329&lt;&gt;"", COUNTIF(C$3:C329, "&lt;&gt;"), "")</f>
         <v>310</v>
@@ -6838,7 +6832,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B330" s="14">
         <f>IF(C330&lt;&gt;"", COUNTIF(C$3:C330, "&lt;&gt;"), "")</f>
         <v>311</v>
@@ -6853,7 +6847,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B331" s="14">
         <f>IF(C331&lt;&gt;"", COUNTIF(C$3:C331, "&lt;&gt;"), "")</f>
         <v>312</v>
@@ -6868,7 +6862,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B332" s="14" t="str">
         <f>IF(C332&lt;&gt;"", COUNTIF(C$3:C332, "&lt;&gt;"), "")</f>
         <v/>
@@ -6877,7 +6871,7 @@
       <c r="D332" s="8"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B333" s="14">
         <f>IF(C333&lt;&gt;"", COUNTIF(C$3:C333, "&lt;&gt;"), "")</f>
         <v>313</v>
@@ -6889,10 +6883,10 @@
         <v>323</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B334" s="14">
         <f>IF(C334&lt;&gt;"", COUNTIF(C$3:C334, "&lt;&gt;"), "")</f>
         <v>314</v>
@@ -6904,10 +6898,10 @@
         <v>324</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B335" s="14">
         <f>IF(C335&lt;&gt;"", COUNTIF(C$3:C335, "&lt;&gt;"), "")</f>
         <v>315</v>
@@ -6919,10 +6913,10 @@
         <v>325</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B336" s="14">
         <f>IF(C336&lt;&gt;"", COUNTIF(C$3:C336, "&lt;&gt;"), "")</f>
         <v>316</v>
@@ -6937,7 +6931,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B337" s="14">
         <f>IF(C337&lt;&gt;"", COUNTIF(C$3:C337, "&lt;&gt;"), "")</f>
         <v>317</v>
@@ -6952,7 +6946,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B338" s="14">
         <f>IF(C338&lt;&gt;"", COUNTIF(C$3:C338, "&lt;&gt;"), "")</f>
         <v>318</v>
@@ -6967,7 +6961,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B339" s="14">
         <f>IF(C339&lt;&gt;"", COUNTIF(C$3:C339, "&lt;&gt;"), "")</f>
         <v>319</v>
@@ -6982,7 +6976,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B340" s="14">
         <f>IF(C340&lt;&gt;"", COUNTIF(C$3:C340, "&lt;&gt;"), "")</f>
         <v>320</v>
@@ -6994,10 +6988,10 @@
         <v>330</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B341" s="14">
         <f>IF(C341&lt;&gt;"", COUNTIF(C$3:C341, "&lt;&gt;"), "")</f>
         <v>321</v>
@@ -7012,7 +7006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B342" s="14">
         <f>IF(C342&lt;&gt;"", COUNTIF(C$3:C342, "&lt;&gt;"), "")</f>
         <v>322</v>
@@ -7027,7 +7021,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B343" s="14">
         <f>IF(C343&lt;&gt;"", COUNTIF(C$3:C343, "&lt;&gt;"), "")</f>
         <v>323</v>
@@ -7042,7 +7036,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B344" s="14">
         <f>IF(C344&lt;&gt;"", COUNTIF(C$3:C344, "&lt;&gt;"), "")</f>
         <v>324</v>
@@ -7057,7 +7051,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B345" s="14">
         <f>IF(C345&lt;&gt;"", COUNTIF(C$3:C345, "&lt;&gt;"), "")</f>
         <v>325</v>
@@ -7072,7 +7066,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B346" s="14">
         <f>IF(C346&lt;&gt;"", COUNTIF(C$3:C346, "&lt;&gt;"), "")</f>
         <v>326</v>
@@ -7087,7 +7081,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B347" s="14">
         <f>IF(C347&lt;&gt;"", COUNTIF(C$3:C347, "&lt;&gt;"), "")</f>
         <v>327</v>
@@ -7102,7 +7096,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B348" s="14">
         <f>IF(C348&lt;&gt;"", COUNTIF(C$3:C348, "&lt;&gt;"), "")</f>
         <v>328</v>
@@ -7117,7 +7111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B349" s="14">
         <f>IF(C349&lt;&gt;"", COUNTIF(C$3:C349, "&lt;&gt;"), "")</f>
         <v>329</v>
@@ -7132,7 +7126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B350" s="14">
         <f>IF(C350&lt;&gt;"", COUNTIF(C$3:C350, "&lt;&gt;"), "")</f>
         <v>330</v>
@@ -7147,7 +7141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B351" s="14" t="str">
         <f>IF(C351&lt;&gt;"", COUNTIF(C$3:C351, "&lt;&gt;"), "")</f>
         <v/>
@@ -7156,7 +7150,7 @@
       <c r="D351" s="8"/>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B352" s="14" t="str">
         <f>IF(C352&lt;&gt;"", COUNTIF(C$3:C352, "&lt;&gt;"), "")</f>
         <v/>
@@ -7165,7 +7159,7 @@
       <c r="D352" s="8"/>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B353" s="14">
         <f>IF(C353&lt;&gt;"", COUNTIF(C$3:C353, "&lt;&gt;"), "")</f>
         <v>331</v>
@@ -7180,7 +7174,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B354" s="14">
         <f>IF(C354&lt;&gt;"", COUNTIF(C$3:C354, "&lt;&gt;"), "")</f>
         <v>332</v>
@@ -7195,7 +7189,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B355" s="14">
         <f>IF(C355&lt;&gt;"", COUNTIF(C$3:C355, "&lt;&gt;"), "")</f>
         <v>333</v>
@@ -7210,7 +7204,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B356" s="14">
         <f>IF(C356&lt;&gt;"", COUNTIF(C$3:C356, "&lt;&gt;"), "")</f>
         <v>334</v>
@@ -7225,7 +7219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B357" s="14">
         <f>IF(C357&lt;&gt;"", COUNTIF(C$3:C357, "&lt;&gt;"), "")</f>
         <v>335</v>
@@ -7240,7 +7234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B358" s="14">
         <f>IF(C358&lt;&gt;"", COUNTIF(C$3:C358, "&lt;&gt;"), "")</f>
         <v>336</v>
@@ -7255,7 +7249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B359" s="14">
         <f>IF(C359&lt;&gt;"", COUNTIF(C$3:C359, "&lt;&gt;"), "")</f>
         <v>337</v>
@@ -7270,7 +7264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B360" s="14">
         <f>IF(C360&lt;&gt;"", COUNTIF(C$3:C360, "&lt;&gt;"), "")</f>
         <v>338</v>
@@ -7285,7 +7279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B361" s="14">
         <f>IF(C361&lt;&gt;"", COUNTIF(C$3:C361, "&lt;&gt;"), "")</f>
         <v>339</v>
@@ -7300,7 +7294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B362" s="14">
         <f>IF(C362&lt;&gt;"", COUNTIF(C$3:C362, "&lt;&gt;"), "")</f>
         <v>340</v>
@@ -7315,7 +7309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B363" s="14">
         <f>IF(C363&lt;&gt;"", COUNTIF(C$3:C363, "&lt;&gt;"), "")</f>
         <v>341</v>
@@ -7330,7 +7324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B364" s="14">
         <f>IF(C364&lt;&gt;"", COUNTIF(C$3:C364, "&lt;&gt;"), "")</f>
         <v>342</v>
@@ -7345,7 +7339,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B365" s="14">
         <f>IF(C365&lt;&gt;"", COUNTIF(C$3:C365, "&lt;&gt;"), "")</f>
         <v>343</v>
@@ -7360,7 +7354,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B366" s="14">
         <f>IF(C366&lt;&gt;"", COUNTIF(C$3:C366, "&lt;&gt;"), "")</f>
         <v>344</v>
@@ -7375,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B367" s="14">
         <f>IF(C367&lt;&gt;"", COUNTIF(C$3:C367, "&lt;&gt;"), "")</f>
         <v>345</v>
@@ -7390,7 +7384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B368" s="14">
         <f>IF(C368&lt;&gt;"", COUNTIF(C$3:C368, "&lt;&gt;"), "")</f>
         <v>346</v>
@@ -7405,7 +7399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B369" s="14">
         <f>IF(C369&lt;&gt;"", COUNTIF(C$3:C369, "&lt;&gt;"), "")</f>
         <v>347</v>
@@ -7420,7 +7414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B370" s="14">
         <f>IF(C370&lt;&gt;"", COUNTIF(C$3:C370, "&lt;&gt;"), "")</f>
         <v>348</v>
@@ -7435,7 +7429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B371" s="14">
         <f>IF(C371&lt;&gt;"", COUNTIF(C$3:C371, "&lt;&gt;"), "")</f>
         <v>349</v>
@@ -7450,7 +7444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B372" s="14">
         <f>IF(C372&lt;&gt;"", COUNTIF(C$3:C372, "&lt;&gt;"), "")</f>
         <v>350</v>
@@ -7465,7 +7459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B373" s="14">
         <f>IF(C373&lt;&gt;"", COUNTIF(C$3:C373, "&lt;&gt;"), "")</f>
         <v>351</v>
@@ -7480,7 +7474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B374" s="14">
         <f>IF(C374&lt;&gt;"", COUNTIF(C$3:C374, "&lt;&gt;"), "")</f>
         <v>352</v>
@@ -7492,10 +7486,10 @@
         <v>363</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B375" s="14">
         <f>IF(C375&lt;&gt;"", COUNTIF(C$3:C375, "&lt;&gt;"), "")</f>
         <v>353</v>
@@ -7510,7 +7504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B376" s="14">
         <f>IF(C376&lt;&gt;"", COUNTIF(C$3:C376, "&lt;&gt;"), "")</f>
         <v>354</v>
@@ -7525,7 +7519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B377" s="14">
         <f>IF(C377&lt;&gt;"", COUNTIF(C$3:C377, "&lt;&gt;"), "")</f>
         <v>355</v>
@@ -7540,7 +7534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B378" s="14">
         <f>IF(C378&lt;&gt;"", COUNTIF(C$3:C378, "&lt;&gt;"), "")</f>
         <v>356</v>
@@ -7555,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B379" s="14">
         <f>IF(C379&lt;&gt;"", COUNTIF(C$3:C379, "&lt;&gt;"), "")</f>
         <v>357</v>
@@ -7570,7 +7564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B380" s="14">
         <f>IF(C380&lt;&gt;"", COUNTIF(C$3:C380, "&lt;&gt;"), "")</f>
         <v>358</v>
@@ -7585,7 +7579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B381" s="14">
         <f>IF(C381&lt;&gt;"", COUNTIF(C$3:C381, "&lt;&gt;"), "")</f>
         <v>359</v>
@@ -7600,7 +7594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B382" s="14">
         <f>IF(C382&lt;&gt;"", COUNTIF(C$3:C382, "&lt;&gt;"), "")</f>
         <v>360</v>
@@ -7615,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B383" s="14">
         <f>IF(C383&lt;&gt;"", COUNTIF(C$3:C383, "&lt;&gt;"), "")</f>
         <v>361</v>
@@ -7630,7 +7624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B384" s="14">
         <f>IF(C384&lt;&gt;"", COUNTIF(C$3:C384, "&lt;&gt;"), "")</f>
         <v>362</v>
@@ -7645,7 +7639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B385" s="14">
         <f>IF(C385&lt;&gt;"", COUNTIF(C$3:C385, "&lt;&gt;"), "")</f>
         <v>363</v>
@@ -7660,7 +7654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B386" s="14">
         <f>IF(C386&lt;&gt;"", COUNTIF(C$3:C386, "&lt;&gt;"), "")</f>
         <v>364</v>
@@ -7675,7 +7669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B387" s="14">
         <f>IF(C387&lt;&gt;"", COUNTIF(C$3:C387, "&lt;&gt;"), "")</f>
         <v>365</v>
@@ -7690,7 +7684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B388" s="14">
         <f>IF(C388&lt;&gt;"", COUNTIF(C$3:C388, "&lt;&gt;"), "")</f>
         <v>366</v>
@@ -7705,7 +7699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B389" s="14">
         <f>IF(C389&lt;&gt;"", COUNTIF(C$3:C389, "&lt;&gt;"), "")</f>
         <v>367</v>
@@ -7720,7 +7714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B390" s="14">
         <f>IF(C390&lt;&gt;"", COUNTIF(C$3:C390, "&lt;&gt;"), "")</f>
         <v>368</v>
@@ -7735,7 +7729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B391" s="14">
         <f>IF(C391&lt;&gt;"", COUNTIF(C$3:C391, "&lt;&gt;"), "")</f>
         <v>369</v>
@@ -7750,7 +7744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B392" s="14">
         <f>IF(C392&lt;&gt;"", COUNTIF(C$3:C392, "&lt;&gt;"), "")</f>
         <v>370</v>
@@ -7765,7 +7759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B393" s="14">
         <f>IF(C393&lt;&gt;"", COUNTIF(C$3:C393, "&lt;&gt;"), "")</f>
         <v>371</v>
@@ -7780,7 +7774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B394" s="14">
         <f>IF(C394&lt;&gt;"", COUNTIF(C$3:C394, "&lt;&gt;"), "")</f>
         <v>372</v>
@@ -7795,7 +7789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B395" s="14">
         <f>IF(C395&lt;&gt;"", COUNTIF(C$3:C395, "&lt;&gt;"), "")</f>
         <v>373</v>
@@ -7810,7 +7804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B396" s="14">
         <f>IF(C396&lt;&gt;"", COUNTIF(C$3:C396, "&lt;&gt;"), "")</f>
         <v>374</v>
@@ -7825,7 +7819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B397" s="14" t="str">
         <f>IF(C397&lt;&gt;"", COUNTIF(C$3:C397, "&lt;&gt;"), "")</f>
         <v/>
@@ -7834,7 +7828,7 @@
       <c r="D397" s="8"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B398" s="14" t="str">
         <f>IF(C398&lt;&gt;"", COUNTIF(C$3:C398, "&lt;&gt;"), "")</f>
         <v/>
@@ -7843,7 +7837,7 @@
       <c r="D398" s="8"/>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B399" s="14">
         <f>IF(C399&lt;&gt;"", COUNTIF(C$3:C399, "&lt;&gt;"), "")</f>
         <v>375</v>
@@ -7858,7 +7852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B400" s="14">
         <f>IF(C400&lt;&gt;"", COUNTIF(C$3:C400, "&lt;&gt;"), "")</f>
         <v>376</v>
@@ -7873,7 +7867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B401" s="14">
         <f>IF(C401&lt;&gt;"", COUNTIF(C$3:C401, "&lt;&gt;"), "")</f>
         <v>377</v>
@@ -7888,7 +7882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B402" s="14">
         <f>IF(C402&lt;&gt;"", COUNTIF(C$3:C402, "&lt;&gt;"), "")</f>
         <v>378</v>
@@ -7903,7 +7897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B403" s="14">
         <f>IF(C403&lt;&gt;"", COUNTIF(C$3:C403, "&lt;&gt;"), "")</f>
         <v>379</v>
@@ -7918,7 +7912,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B404" s="14">
         <f>IF(C404&lt;&gt;"", COUNTIF(C$3:C404, "&lt;&gt;"), "")</f>
         <v>380</v>
@@ -7933,7 +7927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B405" s="14" t="str">
         <f>IF(C405&lt;&gt;"", COUNTIF(C$3:C405, "&lt;&gt;"), "")</f>
         <v/>
@@ -7942,7 +7936,7 @@
       <c r="D405" s="8"/>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B406" s="14" t="str">
         <f>IF(C406&lt;&gt;"", COUNTIF(C$3:C406, "&lt;&gt;"), "")</f>
         <v/>
@@ -7951,7 +7945,7 @@
       <c r="D406" s="8"/>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B407" s="14">
         <f>IF(C407&lt;&gt;"", COUNTIF(C$3:C407, "&lt;&gt;"), "")</f>
         <v>381</v>
@@ -7966,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B408" s="14">
         <f>IF(C408&lt;&gt;"", COUNTIF(C$3:C408, "&lt;&gt;"), "")</f>
         <v>382</v>
@@ -7981,7 +7975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B409" s="14">
         <f>IF(C409&lt;&gt;"", COUNTIF(C$3:C409, "&lt;&gt;"), "")</f>
         <v>383</v>
@@ -7996,7 +7990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B410" s="14">
         <f>IF(C410&lt;&gt;"", COUNTIF(C$3:C410, "&lt;&gt;"), "")</f>
         <v>384</v>
@@ -8011,7 +8005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B411" s="14">
         <f>IF(C411&lt;&gt;"", COUNTIF(C$3:C411, "&lt;&gt;"), "")</f>
         <v>385</v>
@@ -8026,7 +8020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B412" s="14">
         <f>IF(C412&lt;&gt;"", COUNTIF(C$3:C412, "&lt;&gt;"), "")</f>
         <v>386</v>
@@ -8041,7 +8035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B413" s="14">
         <f>IF(C413&lt;&gt;"", COUNTIF(C$3:C413, "&lt;&gt;"), "")</f>
         <v>387</v>
@@ -8056,7 +8050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B414" s="14">
         <f>IF(C414&lt;&gt;"", COUNTIF(C$3:C414, "&lt;&gt;"), "")</f>
         <v>388</v>
@@ -8071,7 +8065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B415" s="14">
         <f>IF(C415&lt;&gt;"", COUNTIF(C$3:C415, "&lt;&gt;"), "")</f>
         <v>389</v>
@@ -8086,7 +8080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B416" s="14">
         <f>IF(C416&lt;&gt;"", COUNTIF(C$3:C416, "&lt;&gt;"), "")</f>
         <v>390</v>
@@ -8101,7 +8095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B417" s="14">
         <f>IF(C417&lt;&gt;"", COUNTIF(C$3:C417, "&lt;&gt;"), "")</f>
         <v>391</v>
@@ -8116,7 +8110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B418" s="14">
         <f>IF(C418&lt;&gt;"", COUNTIF(C$3:C418, "&lt;&gt;"), "")</f>
         <v>392</v>
@@ -8131,7 +8125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B419" s="14">
         <f>IF(C419&lt;&gt;"", COUNTIF(C$3:C419, "&lt;&gt;"), "")</f>
         <v>393</v>
@@ -8146,7 +8140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B420" s="14">
         <f>IF(C420&lt;&gt;"", COUNTIF(C$3:C420, "&lt;&gt;"), "")</f>
         <v>394</v>
@@ -8161,7 +8155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B421" s="14">
         <f>IF(C421&lt;&gt;"", COUNTIF(C$3:C421, "&lt;&gt;"), "")</f>
         <v>395</v>
@@ -8176,7 +8170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B422" s="14">
         <f>IF(C422&lt;&gt;"", COUNTIF(C$3:C422, "&lt;&gt;"), "")</f>
         <v>396</v>
@@ -8191,7 +8185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B423" s="14">
         <f>IF(C423&lt;&gt;"", COUNTIF(C$3:C423, "&lt;&gt;"), "")</f>
         <v>397</v>
@@ -8206,7 +8200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B424" s="14">
         <f>IF(C424&lt;&gt;"", COUNTIF(C$3:C424, "&lt;&gt;"), "")</f>
         <v>398</v>
@@ -8221,7 +8215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B425" s="14">
         <f>IF(C425&lt;&gt;"", COUNTIF(C$3:C425, "&lt;&gt;"), "")</f>
         <v>399</v>
@@ -8236,7 +8230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B426" s="14">
         <f>IF(C426&lt;&gt;"", COUNTIF(C$3:C426, "&lt;&gt;"), "")</f>
         <v>400</v>
@@ -8251,7 +8245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B427" s="14">
         <f>IF(C427&lt;&gt;"", COUNTIF(C$3:C427, "&lt;&gt;"), "")</f>
         <v>401</v>
@@ -8266,7 +8260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B428" s="14">
         <f>IF(C428&lt;&gt;"", COUNTIF(C$3:C428, "&lt;&gt;"), "")</f>
         <v>402</v>
@@ -8281,7 +8275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B429" s="14">
         <f>IF(C429&lt;&gt;"", COUNTIF(C$3:C429, "&lt;&gt;"), "")</f>
         <v>403</v>
@@ -8296,7 +8290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B430" s="14">
         <f>IF(C430&lt;&gt;"", COUNTIF(C$3:C430, "&lt;&gt;"), "")</f>
         <v>404</v>
@@ -8311,7 +8305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B431" s="14">
         <f>IF(C431&lt;&gt;"", COUNTIF(C$3:C431, "&lt;&gt;"), "")</f>
         <v>405</v>
@@ -8326,7 +8320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B432" s="14">
         <f>IF(C432&lt;&gt;"", COUNTIF(C$3:C432, "&lt;&gt;"), "")</f>
         <v>406</v>
@@ -8341,7 +8335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B433" s="14">
         <f>IF(C433&lt;&gt;"", COUNTIF(C$3:C433, "&lt;&gt;"), "")</f>
         <v>407</v>
@@ -8356,7 +8350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B434" s="14">
         <f>IF(C434&lt;&gt;"", COUNTIF(C$3:C434, "&lt;&gt;"), "")</f>
         <v>408</v>
@@ -8371,7 +8365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B435" s="14">
         <f>IF(C435&lt;&gt;"", COUNTIF(C$3:C435, "&lt;&gt;"), "")</f>
         <v>409</v>
@@ -8386,7 +8380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B436" s="14">
         <f>IF(C436&lt;&gt;"", COUNTIF(C$3:C436, "&lt;&gt;"), "")</f>
         <v>410</v>
@@ -8401,7 +8395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B437" s="14">
         <f>IF(C437&lt;&gt;"", COUNTIF(C$3:C437, "&lt;&gt;"), "")</f>
         <v>411</v>
@@ -8416,7 +8410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B438" s="14">
         <f>IF(C438&lt;&gt;"", COUNTIF(C$3:C438, "&lt;&gt;"), "")</f>
         <v>412</v>
@@ -8431,7 +8425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B439" s="14">
         <f>IF(C439&lt;&gt;"", COUNTIF(C$3:C439, "&lt;&gt;"), "")</f>
         <v>413</v>
@@ -8446,7 +8440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B440" s="14">
         <f>IF(C440&lt;&gt;"", COUNTIF(C$3:C440, "&lt;&gt;"), "")</f>
         <v>414</v>
@@ -8461,7 +8455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B441" s="14">
         <f>IF(C441&lt;&gt;"", COUNTIF(C$3:C441, "&lt;&gt;"), "")</f>
         <v>415</v>
@@ -8476,7 +8470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B442" s="14">
         <f>IF(C442&lt;&gt;"", COUNTIF(C$3:C442, "&lt;&gt;"), "")</f>
         <v>416</v>
@@ -8491,7 +8485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B443" s="14">
         <f>IF(C443&lt;&gt;"", COUNTIF(C$3:C443, "&lt;&gt;"), "")</f>
         <v>417</v>
@@ -8506,7 +8500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B444" s="14">
         <f>IF(C444&lt;&gt;"", COUNTIF(C$3:C444, "&lt;&gt;"), "")</f>
         <v>418</v>
@@ -8521,7 +8515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B445" s="14">
         <f>IF(C445&lt;&gt;"", COUNTIF(C$3:C445, "&lt;&gt;"), "")</f>
         <v>419</v>
@@ -8536,7 +8530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B446" s="14">
         <f>IF(C446&lt;&gt;"", COUNTIF(C$3:C446, "&lt;&gt;"), "")</f>
         <v>420</v>
@@ -8551,7 +8545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B447" s="14">
         <f>IF(C447&lt;&gt;"", COUNTIF(C$3:C447, "&lt;&gt;"), "")</f>
         <v>421</v>
@@ -8566,7 +8560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B448" s="14">
         <f>IF(C448&lt;&gt;"", COUNTIF(C$3:C448, "&lt;&gt;"), "")</f>
         <v>422</v>
@@ -8581,7 +8575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B449" s="14">
         <f>IF(C449&lt;&gt;"", COUNTIF(C$3:C449, "&lt;&gt;"), "")</f>
         <v>423</v>
@@ -8596,7 +8590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B450" s="14">
         <f>IF(C450&lt;&gt;"", COUNTIF(C$3:C450, "&lt;&gt;"), "")</f>
         <v>424</v>
@@ -8611,7 +8605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B451" s="14">
         <f>IF(C451&lt;&gt;"", COUNTIF(C$3:C451, "&lt;&gt;"), "")</f>
         <v>425</v>
@@ -8626,7 +8620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B452" s="14">
         <f>IF(C452&lt;&gt;"", COUNTIF(C$3:C452, "&lt;&gt;"), "")</f>
         <v>426</v>
@@ -8641,7 +8635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B453" s="14">
         <f>IF(C453&lt;&gt;"", COUNTIF(C$3:C453, "&lt;&gt;"), "")</f>
         <v>427</v>
@@ -8656,7 +8650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B454" s="14">
         <f>IF(C454&lt;&gt;"", COUNTIF(C$3:C454, "&lt;&gt;"), "")</f>
         <v>428</v>
@@ -8671,7 +8665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B455" s="14">
         <f>IF(C455&lt;&gt;"", COUNTIF(C$3:C455, "&lt;&gt;"), "")</f>
         <v>429</v>
@@ -8686,7 +8680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B456" s="14">
         <f>IF(C456&lt;&gt;"", COUNTIF(C$3:C456, "&lt;&gt;"), "")</f>
         <v>430</v>
@@ -8701,7 +8695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B457" s="14">
         <f>IF(C457&lt;&gt;"", COUNTIF(C$3:C457, "&lt;&gt;"), "")</f>
         <v>431</v>
@@ -8716,7 +8710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B458" s="14">
         <f>IF(C458&lt;&gt;"", COUNTIF(C$3:C458, "&lt;&gt;"), "")</f>
         <v>432</v>
@@ -8731,7 +8725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B459" s="14">
         <f>IF(C459&lt;&gt;"", COUNTIF(C$3:C459, "&lt;&gt;"), "")</f>
         <v>433</v>
@@ -8746,7 +8740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B460" s="14">
         <f>IF(C460&lt;&gt;"", COUNTIF(C$3:C460, "&lt;&gt;"), "")</f>
         <v>434</v>
@@ -8761,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B461" s="14">
         <f>IF(C461&lt;&gt;"", COUNTIF(C$3:C461, "&lt;&gt;"), "")</f>
         <v>435</v>
@@ -8776,7 +8770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B462" s="14">
         <f>IF(C462&lt;&gt;"", COUNTIF(C$3:C462, "&lt;&gt;"), "")</f>
         <v>436</v>
@@ -8791,7 +8785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B463" s="14">
         <f>IF(C463&lt;&gt;"", COUNTIF(C$3:C463, "&lt;&gt;"), "")</f>
         <v>437</v>
@@ -8806,7 +8800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B464" s="14">
         <f>IF(C464&lt;&gt;"", COUNTIF(C$3:C464, "&lt;&gt;"), "")</f>
         <v>438</v>
@@ -8821,7 +8815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B465" s="14">
         <f>IF(C465&lt;&gt;"", COUNTIF(C$3:C465, "&lt;&gt;"), "")</f>
         <v>439</v>
@@ -8836,7 +8830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B466" s="14">
         <f>IF(C466&lt;&gt;"", COUNTIF(C$3:C466, "&lt;&gt;"), "")</f>
         <v>440</v>
@@ -8851,7 +8845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B467" s="14" t="str">
         <f>IF(C467&lt;&gt;"", COUNTIF(C$3:C467, "&lt;&gt;"), "")</f>
         <v/>
@@ -8860,7 +8854,7 @@
       <c r="D467" s="8"/>
       <c r="E467" s="5"/>
     </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B468" s="14" t="str">
         <f>IF(C468&lt;&gt;"", COUNTIF(C$3:C468, "&lt;&gt;"), "")</f>
         <v/>
@@ -8869,7 +8863,7 @@
       <c r="D468" s="8"/>
       <c r="E468" s="5"/>
     </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B469" s="14">
         <f>IF(C469&lt;&gt;"", COUNTIF(C$3:C469, "&lt;&gt;"), "")</f>
         <v>441</v>
@@ -8884,7 +8878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B470" s="14">
         <f>IF(C470&lt;&gt;"", COUNTIF(C$3:C470, "&lt;&gt;"), "")</f>
         <v>442</v>
@@ -8899,7 +8893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B471" s="14">
         <f>IF(C471&lt;&gt;"", COUNTIF(C$3:C471, "&lt;&gt;"), "")</f>
         <v>443</v>
@@ -8914,7 +8908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B472" s="14">
         <f>IF(C472&lt;&gt;"", COUNTIF(C$3:C472, "&lt;&gt;"), "")</f>
         <v>444</v>
@@ -8929,7 +8923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B473" s="14">
         <f>IF(C473&lt;&gt;"", COUNTIF(C$3:C473, "&lt;&gt;"), "")</f>
         <v>445</v>
@@ -8944,7 +8938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B474" s="14">
         <f>IF(C474&lt;&gt;"", COUNTIF(C$3:C474, "&lt;&gt;"), "")</f>
         <v>446</v>
@@ -8959,7 +8953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B475" s="14">
         <f>IF(C475&lt;&gt;"", COUNTIF(C$3:C475, "&lt;&gt;"), "")</f>
         <v>447</v>
@@ -8974,7 +8968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B476" s="14">
         <f>IF(C476&lt;&gt;"", COUNTIF(C$3:C476, "&lt;&gt;"), "")</f>
         <v>448</v>
@@ -8989,7 +8983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B477" s="14">
         <f>IF(C477&lt;&gt;"", COUNTIF(C$3:C477, "&lt;&gt;"), "")</f>
         <v>449</v>
@@ -9004,7 +8998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B478" s="14">
         <f>IF(C478&lt;&gt;"", COUNTIF(C$3:C478, "&lt;&gt;"), "")</f>
         <v>450</v>
@@ -9019,7 +9013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B479" s="14" t="str">
         <f>IF(C479&lt;&gt;"", COUNTIF(C$3:C479, "&lt;&gt;"), "")</f>
         <v/>
@@ -9028,7 +9022,7 @@
       <c r="D479" s="4"/>
       <c r="E479" s="8"/>
     </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B480" s="14" t="str">
         <f>IF(C480&lt;&gt;"", COUNTIF(C$3:C480, "&lt;&gt;"), "")</f>
         <v/>
@@ -9037,7 +9031,7 @@
       <c r="D480" s="16"/>
       <c r="E480" s="8"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C481" s="15"/>
     </row>
   </sheetData>

--- a/DSA-450/FINAL450.xlsx
+++ b/DSA-450/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523140A3-83FF-4DE9-B98A-06A11C0E6E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45E12D-070B-4E1F-912F-0DFF54ED0DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-23148" yWindow="-180" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1993,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D358" sqref="D358"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E351" sqref="E351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -7216,7 +7216,7 @@
         <v>345</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.35">
@@ -7231,7 +7231,7 @@
         <v>346</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.35">
